--- a/Free Georgia - Gori Valley/Briefings/Radio.xlsx
+++ b/Free Georgia - Gori Valley/Briefings/Radio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Gori Valley</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +426,7 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -485,77 +486,85 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>139.4</v>
-      </c>
-      <c r="F5">
-        <v>362</v>
+        <v>212.2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
       <c r="H5" t="str">
         <f>CONCATENATE(D5,"    Freq: ",E5,"    Call: ",F5,IF(ISBLANK(G5),"",CONCATENATE( "    Tacan: ",G5)))</f>
-        <v>AWACS    Freq: 139,4    Call: 362</v>
+        <v>TANKER    Freq: 212,2    Call: Texaco    Tacan: X-3-TKR</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>139.4</v>
+      </c>
+      <c r="F10">
+        <v>362</v>
+      </c>
+      <c r="H10" t="str">
+        <f>CONCATENATE(D10,"    Freq: ",E10,"    Call: ",F10,IF(ISBLANK(G10),"",CONCATENATE( "    Tacan: ",G10)))</f>
+        <v>AWACS    Freq: 139,4    Call: 362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E11">
         <v>264.2</v>
       </c>
-      <c r="F6">
+      <c r="F11">
         <v>923</v>
       </c>
-      <c r="H6" t="str">
-        <f>CONCATENATE(D6,"    Freq: ",E6,"    Call: ",F6,IF(ISBLANK(G6),"",CONCATENATE( "    Tacan: ",G6)))</f>
+      <c r="H11" t="str">
+        <f>CONCATENATE(D11,"    Freq: ",E11,"    Call: ",F11,IF(ISBLANK(G11),"",CONCATENATE( "    Tacan: ",G11)))</f>
         <v>TANKER    Freq: 264,2    Call: 923</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>212.2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="str">
-        <f>CONCATENATE(D7,"    Freq: ",E7,"    Call: ",F7,IF(ISBLANK(G7),"",CONCATENATE( "    Tacan: ",G7)))</f>
-        <v>TANKER    Freq: 212,2    Call: Texaco    Tacan: X-3-TKR</v>
       </c>
     </row>
   </sheetData>
